--- a/data/trans_bre/P32B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3985,74%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 13,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,1; 38,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,76; 320,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,85%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,57; 2,91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; -0,67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 1,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; -0,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 29,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,2; 90,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,79%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,91; 1,37</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; -0,82</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 0,39</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 2,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 72,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 205,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,98</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; -0,52</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 0,55</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 171,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,49; 455,5</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-5,88; 1,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; -0,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; -0,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 2,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,47; 120,06</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,1%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-2,78; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; -0,83</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 0,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 0,12</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 34,14</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; -1,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; -0,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 199,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,95; -46,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,36; -1,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,7; 62,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3985,74%</t>
+          <t>3993,48%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 13,75</t>
+          <t>0,16; 13,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-83,85%</t>
+          <t>-86,76%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -0,56</t>
+          <t>-9,54; -0,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,61</t>
+          <t>-1,3; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,67</t>
+          <t>-1,52; 1,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,49; 455,5</t>
+          <t>-88,27; 465,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>-25,35%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,21</t>
+          <t>-3,89; 2,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-77,47; 120,06</t>
+          <t>-77,43; 122,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-73,1%</t>
+          <t>-87,9%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,83</t>
+          <t>-7,89; -0,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,12</t>
+          <t>-3,27; -0,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,14</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-76,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-16,31%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,89; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 0,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 0,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 5,5</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-76,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-51,31%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-32,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,49; 1,15</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-3,12; -1,26</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,99; -0,19</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 0,88</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 0,54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-48,24; 199,37</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-89,95; -46,64</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-75,36; -1,93</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-61,7; 62,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-71,06; 37,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P32B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,87</t>
+          <t>-1,26; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,2</t>
+          <t>-5,84; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,36</t>
+          <t>-3,07; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 13,34</t>
+          <t>0,15; 13,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,1; 38,93</t>
+          <t>-81,55; 37,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-86,76; 320,08</t>
+          <t>-100,0; 289,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,91</t>
+          <t>-0,71; 2,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -0,67</t>
+          <t>-4,52; -0,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,47</t>
+          <t>-3,71; 1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,86</t>
+          <t>-10,1; -0,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 29,57</t>
+          <t>-100,0; 18,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 90,85</t>
+          <t>-81,04; 72,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 213,78</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,37</t>
+          <t>-0,9; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,82</t>
+          <t>-4,67; -0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,39</t>
+          <t>-2,72; 0,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,49</t>
+          <t>-1,36; 2,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 72,21</t>
+          <t>-100,0; -5,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 205,45</t>
+          <t>-100,0; 146,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,52</t>
+          <t>-3,36; -0,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,55</t>
+          <t>-4,26; 0,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,65</t>
+          <t>-1,52; 1,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 171,33</t>
+          <t>-100,0; 91,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,27; 465,66</t>
+          <t>-88,47; 528,49</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 1,77</t>
+          <t>-5,49; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,35</t>
+          <t>-5,33; -0,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,39</t>
+          <t>-4,46; -0,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,22</t>
+          <t>-3,47; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 316,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-77,43; 122,42</t>
+          <t>-75,24; 157,26</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -0,62</t>
+          <t>-7,5; -0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,67; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,03</t>
+          <t>-3,11; 0,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-6,99; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 0,0</t>
+          <t>-15,08; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,5</t>
+          <t>-3,03; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,15</t>
+          <t>-0,54; 1,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -1,26</t>
+          <t>-3,25; -1,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; -0,19</t>
+          <t>-2,0; -0,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,54</t>
+          <t>-1,8; 0,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 199,37</t>
+          <t>-55,96; 229,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,95; -46,64</t>
+          <t>-90,83; -51,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,36; -1,93</t>
+          <t>-77,36; -6,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 37,94</t>
+          <t>-69,88; 38,15</t>
         </is>
       </c>
     </row>
